--- a/Data/Calibration/Firm Calibration/data/soi/data/soi_partner/Crosswalks/12pa05_Crosswalk.xlsx
+++ b/Data/Calibration/Firm Calibration/data/soi/data/soi_partner/Crosswalks/12pa05_Crosswalk.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Lott, Sherwin\OLG Dynamic Scoring Model\Calibration\Draft 2\Program\data\SOI_Partner\Crosswalks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sherwin.lott\Documents\Firm Calibration\data\soi\data\soi_partner\Crosswalks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -107,9 +107,6 @@
     <t>Industry:</t>
   </si>
   <si>
-    <t>NAICS Code:</t>
-  </si>
-  <si>
     <t>532.533</t>
   </si>
   <si>
@@ -171,6 +168,9 @@
   </si>
   <si>
     <t>Nature of business not allocable</t>
+  </si>
+  <si>
+    <t>Codes:</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -519,7 +521,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -567,7 +569,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -583,7 +585,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -591,7 +593,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -615,15 +617,15 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -644,10 +646,10 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -655,15 +657,15 @@
         <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -671,31 +673,31 @@
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -703,7 +705,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -711,7 +713,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -780,7 +782,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
